--- a/bw2io/data/SimaPro - ecoinvent - biosphere.xlsx
+++ b/bw2io/data/SimaPro - ecoinvent - biosphere.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32620" windowHeight="20540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23460" windowHeight="26600"/>
   </bookViews>
   <sheets>
     <sheet name="ee" sheetId="1" r:id="rId1"/>
     <sheet name="unit" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ee!$A$1:$D$1878</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ee!$A$1:$D$1900</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">unit!$A$1:$D$64</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="787">
   <si>
     <t>Silver, ion</t>
   </si>
@@ -2292,26 +2292,139 @@
   </si>
   <si>
     <t>SimaPro category</t>
+  </si>
+  <si>
+    <t>Occupation, forest, intensive, clear-cutting</t>
+  </si>
+  <si>
+    <t>Occupation, forest, intensive, normal</t>
+  </si>
+  <si>
+    <t>Occupation, forest, intensive, short-cycle</t>
+  </si>
+  <si>
+    <t>Occupation, forest, intensive</t>
+  </si>
+  <si>
+    <t>Occupation, industrial area, benthos</t>
+  </si>
+  <si>
+    <t>Occupation, industrial area, built up</t>
+  </si>
+  <si>
+    <t>Occupation, industrial area, vegetation</t>
+  </si>
+  <si>
+    <t>Occupation, industrial area</t>
+  </si>
+  <si>
+    <t>Occupation, traffic area, rail embankment</t>
+  </si>
+  <si>
+    <t>Occupation, traffic area, rail/road embankment</t>
+  </si>
+  <si>
+    <t>Transformation, from forest, intensive, clear-cutting</t>
+  </si>
+  <si>
+    <t>Transformation, from forest, intensive, normal</t>
+  </si>
+  <si>
+    <t>Transformation, from forest, intensive, short-cycle</t>
+  </si>
+  <si>
+    <t>Transformation, from forest, intensive</t>
+  </si>
+  <si>
+    <t>Transformation, from industrial area, benthos</t>
+  </si>
+  <si>
+    <t>Transformation, from industrial area, built up</t>
+  </si>
+  <si>
+    <t>Transformation, from industrial area, vegetation</t>
+  </si>
+  <si>
+    <t>Transformation, from industrial area</t>
+  </si>
+  <si>
+    <t>Transformation, from traffic area, rail embankment</t>
+  </si>
+  <si>
+    <t>Transformation, from traffic area, rail/road embankment</t>
+  </si>
+  <si>
+    <t>Transformation, to forest, intensive, clear-cutting</t>
+  </si>
+  <si>
+    <t>Transformation, to forest, intensive, normal</t>
+  </si>
+  <si>
+    <t>Transformation, to forest, intensive, short-cycle</t>
+  </si>
+  <si>
+    <t>Transformation, to forest, intensive</t>
+  </si>
+  <si>
+    <t>Transformation, to industrial area, benthos</t>
+  </si>
+  <si>
+    <t>Transformation, to industrial area, built up</t>
+  </si>
+  <si>
+    <t>Transformation, to industrial area, vegetation</t>
+  </si>
+  <si>
+    <t>Transformation, to industrial area</t>
+  </si>
+  <si>
+    <t>Transformation, to traffic area, rail embankment</t>
+  </si>
+  <si>
+    <t>Transformation, to traffic area, rail/road embankment</t>
+  </si>
+  <si>
+    <t>Benzene, dichloro-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2323,17 +2436,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2601,7 +2737,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2609,11 +2745,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C461"/>
+  <dimension ref="A1:C483"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2657,14 +2793,14 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>472</v>
       </c>
       <c r="B4" t="s">
-        <v>401</v>
+        <v>786</v>
       </c>
       <c r="C4" t="s">
-        <v>369</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2672,10 +2808,10 @@
         <v>472</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>401</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2683,10 +2819,10 @@
         <v>472</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>450</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2694,10 +2830,10 @@
         <v>472</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>234</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2705,10 +2841,10 @@
         <v>472</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2716,10 +2852,10 @@
         <v>472</v>
       </c>
       <c r="B9" t="s">
-        <v>455</v>
+        <v>169</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2727,10 +2863,10 @@
         <v>472</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>455</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2738,10 +2874,10 @@
         <v>472</v>
       </c>
       <c r="B11" t="s">
-        <v>435</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>342</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2749,10 +2885,10 @@
         <v>472</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>435</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2760,10 +2896,10 @@
         <v>472</v>
       </c>
       <c r="B13" t="s">
-        <v>416</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2771,10 +2907,10 @@
         <v>472</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>416</v>
       </c>
       <c r="C14" t="s">
-        <v>349</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2782,10 +2918,10 @@
         <v>472</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>194</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2793,10 +2929,10 @@
         <v>472</v>
       </c>
       <c r="B16" t="s">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>340</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2804,10 +2940,10 @@
         <v>472</v>
       </c>
       <c r="B17" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C17" t="s">
-        <v>410</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2815,10 +2951,10 @@
         <v>472</v>
       </c>
       <c r="B18" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2826,10 +2962,10 @@
         <v>472</v>
       </c>
       <c r="B19" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="C19" t="s">
-        <v>385</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2837,10 +2973,10 @@
         <v>472</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>299</v>
       </c>
       <c r="C20" t="s">
-        <v>157</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2848,10 +2984,10 @@
         <v>472</v>
       </c>
       <c r="B21" t="s">
-        <v>320</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2859,10 +2995,10 @@
         <v>472</v>
       </c>
       <c r="B22" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C22" t="s">
-        <v>359</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2870,10 +3006,10 @@
         <v>472</v>
       </c>
       <c r="B23" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="C23" t="s">
-        <v>389</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2881,10 +3017,10 @@
         <v>472</v>
       </c>
       <c r="B24" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>389</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2892,10 +3028,10 @@
         <v>472</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="C25" t="s">
-        <v>376</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2903,10 +3039,10 @@
         <v>472</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2914,10 +3050,10 @@
         <v>472</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2925,10 +3061,10 @@
         <v>472</v>
       </c>
       <c r="B28" t="s">
-        <v>395</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>433</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2936,10 +3072,10 @@
         <v>472</v>
       </c>
       <c r="B29" t="s">
-        <v>451</v>
+        <v>395</v>
       </c>
       <c r="C29" t="s">
-        <v>263</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2947,10 +3083,10 @@
         <v>472</v>
       </c>
       <c r="B30" t="s">
-        <v>248</v>
+        <v>451</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2958,21 +3094,21 @@
         <v>472</v>
       </c>
       <c r="B31" t="s">
-        <v>318</v>
+        <v>248</v>
       </c>
       <c r="C31" t="s">
-        <v>225</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B32" t="s">
-        <v>207</v>
+        <v>318</v>
       </c>
       <c r="C32" t="s">
-        <v>370</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2980,10 +3116,10 @@
         <v>474</v>
       </c>
       <c r="B33" t="s">
-        <v>307</v>
+        <v>207</v>
       </c>
       <c r="C33" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2991,10 +3127,10 @@
         <v>474</v>
       </c>
       <c r="B34" t="s">
-        <v>400</v>
+        <v>307</v>
       </c>
       <c r="C34" t="s">
-        <v>442</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3002,10 +3138,10 @@
         <v>474</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>442</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3013,10 +3149,10 @@
         <v>474</v>
       </c>
       <c r="B36" t="s">
-        <v>447</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>242</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3024,10 +3160,10 @@
         <v>474</v>
       </c>
       <c r="B37" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C37" t="s">
-        <v>420</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3035,10 +3171,10 @@
         <v>474</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>446</v>
       </c>
       <c r="C38" t="s">
-        <v>280</v>
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3046,10 +3182,10 @@
         <v>474</v>
       </c>
       <c r="B39" t="s">
-        <v>255</v>
+        <v>140</v>
       </c>
       <c r="C39" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3057,10 +3193,10 @@
         <v>474</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>255</v>
       </c>
       <c r="C40" t="s">
-        <v>174</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3068,10 +3204,10 @@
         <v>474</v>
       </c>
       <c r="B41" t="s">
-        <v>325</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3079,10 +3215,10 @@
         <v>474</v>
       </c>
       <c r="B42" t="s">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3090,10 +3226,10 @@
         <v>474</v>
       </c>
       <c r="B43" t="s">
-        <v>439</v>
+        <v>262</v>
       </c>
       <c r="C43" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3101,21 +3237,21 @@
         <v>474</v>
       </c>
       <c r="B44" t="s">
-        <v>375</v>
+        <v>439</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>375</v>
       </c>
       <c r="C45" t="s">
-        <v>454</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3123,10 +3259,10 @@
         <v>471</v>
       </c>
       <c r="B46" t="s">
-        <v>309</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>454</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3134,10 +3270,10 @@
         <v>471</v>
       </c>
       <c r="B47" t="s">
-        <v>401</v>
+        <v>309</v>
       </c>
       <c r="C47" t="s">
-        <v>369</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3145,10 +3281,10 @@
         <v>471</v>
       </c>
       <c r="B48" t="s">
-        <v>185</v>
+        <v>401</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3156,10 +3292,10 @@
         <v>471</v>
       </c>
       <c r="B49" t="s">
-        <v>468</v>
+        <v>185</v>
       </c>
       <c r="C49" t="s">
-        <v>462</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3167,10 +3303,10 @@
         <v>471</v>
       </c>
       <c r="B50" t="s">
-        <v>260</v>
+        <v>468</v>
       </c>
       <c r="C50" t="s">
-        <v>304</v>
+        <v>462</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3178,10 +3314,10 @@
         <v>471</v>
       </c>
       <c r="B51" t="s">
-        <v>171</v>
+        <v>260</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3189,10 +3325,10 @@
         <v>471</v>
       </c>
       <c r="B52" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="C52" t="s">
-        <v>234</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3200,10 +3336,10 @@
         <v>471</v>
       </c>
       <c r="B53" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C53" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3211,10 +3347,10 @@
         <v>471</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="C54" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3222,10 +3358,10 @@
         <v>471</v>
       </c>
       <c r="B55" t="s">
-        <v>353</v>
+        <v>108</v>
       </c>
       <c r="C55" t="s">
-        <v>382</v>
+        <v>312</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3233,10 +3369,10 @@
         <v>471</v>
       </c>
       <c r="B56" t="s">
-        <v>455</v>
+        <v>353</v>
       </c>
       <c r="C56" t="s">
-        <v>158</v>
+        <v>382</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3244,10 +3380,10 @@
         <v>471</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>455</v>
       </c>
       <c r="C57" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3255,10 +3391,10 @@
         <v>471</v>
       </c>
       <c r="B58" t="s">
-        <v>202</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>431</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3266,10 +3402,10 @@
         <v>471</v>
       </c>
       <c r="B59" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="C59" t="s">
-        <v>206</v>
+        <v>431</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3277,10 +3413,10 @@
         <v>471</v>
       </c>
       <c r="B60" t="s">
-        <v>233</v>
+        <v>127</v>
       </c>
       <c r="C60" t="s">
-        <v>340</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3288,10 +3424,10 @@
         <v>471</v>
       </c>
       <c r="B61" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C61" t="s">
-        <v>410</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3299,10 +3435,10 @@
         <v>471</v>
       </c>
       <c r="B62" t="s">
-        <v>404</v>
+        <v>236</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>410</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3310,10 +3446,10 @@
         <v>471</v>
       </c>
       <c r="B63" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C63" t="s">
-        <v>232</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3321,10 +3457,10 @@
         <v>471</v>
       </c>
       <c r="B64" t="s">
-        <v>182</v>
+        <v>406</v>
       </c>
       <c r="C64" t="s">
-        <v>463</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3332,10 +3468,10 @@
         <v>471</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="C65" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3343,10 +3479,10 @@
         <v>471</v>
       </c>
       <c r="B66" t="s">
-        <v>327</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>359</v>
+        <v>464</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3354,10 +3490,10 @@
         <v>471</v>
       </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>327</v>
       </c>
       <c r="C67" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3365,10 +3501,10 @@
         <v>471</v>
       </c>
       <c r="B68" t="s">
-        <v>350</v>
+        <v>46</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>380</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3376,10 +3512,10 @@
         <v>471</v>
       </c>
       <c r="B69" t="s">
-        <v>124</v>
+        <v>350</v>
       </c>
       <c r="C69" t="s">
-        <v>174</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3387,10 +3523,10 @@
         <v>471</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="C70" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3398,10 +3534,10 @@
         <v>471</v>
       </c>
       <c r="B71" t="s">
-        <v>469</v>
+        <v>40</v>
       </c>
       <c r="C71" t="s">
-        <v>465</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3409,10 +3545,10 @@
         <v>471</v>
       </c>
       <c r="B72" t="s">
-        <v>267</v>
+        <v>469</v>
       </c>
       <c r="C72" t="s">
-        <v>0</v>
+        <v>465</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3420,10 +3556,10 @@
         <v>471</v>
       </c>
       <c r="B73" t="s">
-        <v>461</v>
+        <v>267</v>
       </c>
       <c r="C73" t="s">
-        <v>466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3431,10 +3567,10 @@
         <v>471</v>
       </c>
       <c r="B74" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C74" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3442,10 +3578,10 @@
         <v>471</v>
       </c>
       <c r="B75" t="s">
-        <v>110</v>
+        <v>470</v>
       </c>
       <c r="C75" t="s">
-        <v>50</v>
+        <v>467</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3453,10 +3589,10 @@
         <v>471</v>
       </c>
       <c r="B76" t="s">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="C76" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3464,10 +3600,10 @@
         <v>471</v>
       </c>
       <c r="B77" t="s">
-        <v>318</v>
+        <v>240</v>
       </c>
       <c r="C77" t="s">
-        <v>225</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3475,10 +3611,10 @@
         <v>471</v>
       </c>
       <c r="B78" t="s">
-        <v>457</v>
+        <v>318</v>
       </c>
       <c r="C78" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3486,10 +3622,10 @@
         <v>471</v>
       </c>
       <c r="B79" t="s">
-        <v>138</v>
+        <v>457</v>
       </c>
       <c r="C79" t="s">
-        <v>365</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3497,21 +3633,21 @@
         <v>471</v>
       </c>
       <c r="B80" t="s">
-        <v>553</v>
+        <v>138</v>
       </c>
       <c r="C80" t="s">
-        <v>109</v>
+        <v>365</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B81" t="s">
-        <v>65</v>
+        <v>553</v>
       </c>
       <c r="C81" t="s">
-        <v>458</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3519,10 +3655,10 @@
         <v>473</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C82" t="s">
-        <v>361</v>
+        <v>458</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3530,10 +3666,10 @@
         <v>473</v>
       </c>
       <c r="B83" t="s">
-        <v>293</v>
+        <v>19</v>
       </c>
       <c r="C83" t="s">
-        <v>135</v>
+        <v>361</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3541,10 +3677,10 @@
         <v>473</v>
       </c>
       <c r="B84" t="s">
-        <v>179</v>
+        <v>293</v>
       </c>
       <c r="C84" t="s">
-        <v>354</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3552,10 +3688,10 @@
         <v>473</v>
       </c>
       <c r="B85" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="C85" t="s">
-        <v>77</v>
+        <v>354</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3563,10 +3699,10 @@
         <v>473</v>
       </c>
       <c r="B86" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="C86" t="s">
-        <v>270</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3574,10 +3710,10 @@
         <v>473</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="C87" t="s">
-        <v>57</v>
+        <v>270</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3585,10 +3721,10 @@
         <v>473</v>
       </c>
       <c r="B88" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="C88" t="s">
-        <v>250</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3596,10 +3732,10 @@
         <v>473</v>
       </c>
       <c r="B89" t="s">
-        <v>323</v>
+        <v>108</v>
       </c>
       <c r="C89" t="s">
-        <v>313</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3607,10 +3743,10 @@
         <v>473</v>
       </c>
       <c r="B90" t="s">
-        <v>159</v>
+        <v>323</v>
       </c>
       <c r="C90" t="s">
-        <v>173</v>
+        <v>313</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3618,10 +3754,10 @@
         <v>473</v>
       </c>
       <c r="B91" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3629,10 +3765,10 @@
         <v>473</v>
       </c>
       <c r="B92" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C92" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3640,10 +3776,10 @@
         <v>473</v>
       </c>
       <c r="B93" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="C93" t="s">
-        <v>366</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3651,10 +3787,10 @@
         <v>473</v>
       </c>
       <c r="B94" t="s">
-        <v>394</v>
+        <v>226</v>
       </c>
       <c r="C94" t="s">
-        <v>136</v>
+        <v>366</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3662,10 +3798,10 @@
         <v>473</v>
       </c>
       <c r="B95" t="s">
-        <v>100</v>
+        <v>394</v>
       </c>
       <c r="C95" t="s">
-        <v>432</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3673,10 +3809,10 @@
         <v>473</v>
       </c>
       <c r="B96" t="s">
-        <v>246</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>218</v>
+        <v>432</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3684,10 +3820,10 @@
         <v>473</v>
       </c>
       <c r="B97" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="C97" t="s">
-        <v>1</v>
+        <v>218</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3695,10 +3831,10 @@
         <v>473</v>
       </c>
       <c r="B98" t="s">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="C98" t="s">
-        <v>205</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3706,10 +3842,10 @@
         <v>473</v>
       </c>
       <c r="B99" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="C99" t="s">
-        <v>308</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3717,10 +3853,10 @@
         <v>473</v>
       </c>
       <c r="B100" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="C100" t="s">
-        <v>131</v>
+        <v>308</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3728,10 +3864,10 @@
         <v>473</v>
       </c>
       <c r="B101" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3739,10 +3875,10 @@
         <v>473</v>
       </c>
       <c r="B102" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="C102" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3750,10 +3886,10 @@
         <v>473</v>
       </c>
       <c r="B103" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C103" t="s">
-        <v>441</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3761,10 +3897,10 @@
         <v>473</v>
       </c>
       <c r="B104" t="s">
-        <v>456</v>
+        <v>70</v>
       </c>
       <c r="C104" t="s">
-        <v>237</v>
+        <v>441</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3772,10 +3908,10 @@
         <v>473</v>
       </c>
       <c r="B105" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="C105" t="s">
-        <v>427</v>
+        <v>237</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3783,10 +3919,10 @@
         <v>473</v>
       </c>
       <c r="B106" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="C106" t="s">
-        <v>91</v>
+        <v>427</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3794,10 +3930,10 @@
         <v>473</v>
       </c>
       <c r="B107" t="s">
-        <v>337</v>
+        <v>391</v>
       </c>
       <c r="C107" t="s">
-        <v>177</v>
+        <v>91</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3805,10 +3941,10 @@
         <v>473</v>
       </c>
       <c r="B108" t="s">
-        <v>547</v>
+        <v>337</v>
       </c>
       <c r="C108" t="s">
-        <v>495</v>
+        <v>177</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3816,10 +3952,10 @@
         <v>473</v>
       </c>
       <c r="B109" t="s">
-        <v>326</v>
+        <v>547</v>
       </c>
       <c r="C109" t="s">
-        <v>329</v>
+        <v>495</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3827,10 +3963,10 @@
         <v>473</v>
       </c>
       <c r="B110" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="C110" t="s">
-        <v>84</v>
+        <v>329</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3838,10 +3974,10 @@
         <v>473</v>
       </c>
       <c r="B111" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="C111" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3849,10 +3985,10 @@
         <v>473</v>
       </c>
       <c r="B112" t="s">
-        <v>189</v>
+        <v>247</v>
       </c>
       <c r="C112" t="s">
-        <v>434</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3860,10 +3996,10 @@
         <v>473</v>
       </c>
       <c r="B113" t="s">
-        <v>295</v>
+        <v>189</v>
       </c>
       <c r="C113" t="s">
-        <v>86</v>
+        <v>434</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3871,10 +4007,10 @@
         <v>473</v>
       </c>
       <c r="B114" t="s">
-        <v>367</v>
+        <v>295</v>
       </c>
       <c r="C114" t="s">
-        <v>243</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3882,10 +4018,10 @@
         <v>473</v>
       </c>
       <c r="B115" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C115" t="s">
-        <v>155</v>
+        <v>243</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3893,10 +4029,10 @@
         <v>473</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>362</v>
       </c>
       <c r="C116" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3904,10 +4040,10 @@
         <v>473</v>
       </c>
       <c r="B117" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3915,10 +4051,10 @@
         <v>473</v>
       </c>
       <c r="B118" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="C118" t="s">
-        <v>249</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3926,10 +4062,10 @@
         <v>473</v>
       </c>
       <c r="B119" t="s">
-        <v>251</v>
+        <v>102</v>
       </c>
       <c r="C119" t="s">
-        <v>153</v>
+        <v>249</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3937,10 +4073,10 @@
         <v>473</v>
       </c>
       <c r="B120" t="s">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="C120" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3948,10 +4084,10 @@
         <v>473</v>
       </c>
       <c r="B121" t="s">
-        <v>316</v>
+        <v>41</v>
       </c>
       <c r="C121" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3959,10 +4095,10 @@
         <v>473</v>
       </c>
       <c r="B122" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="C122" t="s">
-        <v>252</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3970,10 +4106,10 @@
         <v>473</v>
       </c>
       <c r="B123" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="C123" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3981,10 +4117,10 @@
         <v>473</v>
       </c>
       <c r="B124" t="s">
-        <v>39</v>
+        <v>292</v>
       </c>
       <c r="C124" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3992,10 +4128,10 @@
         <v>473</v>
       </c>
       <c r="B125" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C125" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4003,10 +4139,10 @@
         <v>473</v>
       </c>
       <c r="B126" t="s">
-        <v>217</v>
+        <v>56</v>
       </c>
       <c r="C126" t="s">
-        <v>336</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -4014,10 +4150,10 @@
         <v>473</v>
       </c>
       <c r="B127" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="C127" t="s">
-        <v>271</v>
+        <v>336</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4025,10 +4161,10 @@
         <v>473</v>
       </c>
       <c r="B128" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="C128" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4036,10 +4172,10 @@
         <v>473</v>
       </c>
       <c r="B129" t="s">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="C129" t="s">
-        <v>161</v>
+        <v>256</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4047,10 +4183,10 @@
         <v>473</v>
       </c>
       <c r="B130" t="s">
-        <v>548</v>
+        <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>491</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4058,10 +4194,10 @@
         <v>473</v>
       </c>
       <c r="B131" t="s">
-        <v>453</v>
+        <v>548</v>
       </c>
       <c r="C131" t="s">
-        <v>2</v>
+        <v>491</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4069,10 +4205,10 @@
         <v>473</v>
       </c>
       <c r="B132" t="s">
-        <v>114</v>
+        <v>453</v>
       </c>
       <c r="C132" t="s">
-        <v>176</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4080,10 +4216,10 @@
         <v>473</v>
       </c>
       <c r="B133" t="s">
-        <v>443</v>
+        <v>114</v>
       </c>
       <c r="C133" t="s">
-        <v>279</v>
+        <v>176</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4091,10 +4227,10 @@
         <v>473</v>
       </c>
       <c r="B134" t="s">
-        <v>231</v>
+        <v>443</v>
       </c>
       <c r="C134" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4102,10 +4238,10 @@
         <v>473</v>
       </c>
       <c r="B135" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="C135" t="s">
-        <v>383</v>
+        <v>296</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4113,10 +4249,10 @@
         <v>473</v>
       </c>
       <c r="B136" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C136" t="s">
-        <v>94</v>
+        <v>383</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -4124,10 +4260,10 @@
         <v>473</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="C137" t="s">
-        <v>348</v>
+        <v>94</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -4135,10 +4271,10 @@
         <v>473</v>
       </c>
       <c r="B138" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="C138" t="s">
-        <v>198</v>
+        <v>348</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -4146,10 +4282,10 @@
         <v>473</v>
       </c>
       <c r="B139" t="s">
-        <v>167</v>
+        <v>272</v>
       </c>
       <c r="C139" t="s">
-        <v>345</v>
+        <v>198</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -4157,10 +4293,10 @@
         <v>473</v>
       </c>
       <c r="B140" t="s">
-        <v>294</v>
+        <v>167</v>
       </c>
       <c r="C140" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -4168,10 +4304,10 @@
         <v>473</v>
       </c>
       <c r="B141" t="s">
-        <v>26</v>
+        <v>294</v>
       </c>
       <c r="C141" t="s">
-        <v>66</v>
+        <v>287</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4179,10 +4315,10 @@
         <v>473</v>
       </c>
       <c r="B142" t="s">
-        <v>549</v>
+        <v>26</v>
       </c>
       <c r="C142" t="s">
-        <v>492</v>
+        <v>66</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -4190,10 +4326,10 @@
         <v>473</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>549</v>
       </c>
       <c r="C143" t="s">
-        <v>351</v>
+        <v>492</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4201,10 +4337,10 @@
         <v>473</v>
       </c>
       <c r="B144" t="s">
-        <v>297</v>
+        <v>11</v>
       </c>
       <c r="C144" t="s">
-        <v>199</v>
+        <v>351</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -4212,10 +4348,10 @@
         <v>473</v>
       </c>
       <c r="B145" t="s">
-        <v>460</v>
+        <v>297</v>
       </c>
       <c r="C145" t="s">
-        <v>475</v>
+        <v>199</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4223,10 +4359,10 @@
         <v>473</v>
       </c>
       <c r="B146" t="s">
-        <v>283</v>
+        <v>460</v>
       </c>
       <c r="C146" t="s">
-        <v>317</v>
+        <v>475</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4234,10 +4370,10 @@
         <v>473</v>
       </c>
       <c r="B147" t="s">
-        <v>377</v>
+        <v>283</v>
       </c>
       <c r="C147" t="s">
-        <v>373</v>
+        <v>317</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4245,10 +4381,10 @@
         <v>473</v>
       </c>
       <c r="B148" t="s">
-        <v>215</v>
+        <v>377</v>
       </c>
       <c r="C148" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4256,10 +4392,10 @@
         <v>473</v>
       </c>
       <c r="B149" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C149" t="s">
-        <v>211</v>
+        <v>333</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4267,10 +4403,10 @@
         <v>473</v>
       </c>
       <c r="B150" t="s">
-        <v>364</v>
+        <v>230</v>
       </c>
       <c r="C150" t="s">
-        <v>123</v>
+        <v>211</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4278,10 +4414,10 @@
         <v>473</v>
       </c>
       <c r="B151" t="s">
-        <v>239</v>
+        <v>364</v>
       </c>
       <c r="C151" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4289,10 +4425,10 @@
         <v>473</v>
       </c>
       <c r="B152" t="s">
-        <v>97</v>
+        <v>239</v>
       </c>
       <c r="C152" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4300,10 +4436,10 @@
         <v>473</v>
       </c>
       <c r="B153" t="s">
-        <v>413</v>
+        <v>97</v>
       </c>
       <c r="C153" t="s">
-        <v>265</v>
+        <v>32</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4311,10 +4447,10 @@
         <v>473</v>
       </c>
       <c r="B154" t="s">
-        <v>229</v>
+        <v>413</v>
       </c>
       <c r="C154" t="s">
-        <v>402</v>
+        <v>265</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4322,10 +4458,10 @@
         <v>473</v>
       </c>
       <c r="B155" t="s">
-        <v>355</v>
+        <v>229</v>
       </c>
       <c r="C155" t="s">
-        <v>128</v>
+        <v>402</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4333,10 +4469,10 @@
         <v>473</v>
       </c>
       <c r="B156" t="s">
-        <v>183</v>
+        <v>355</v>
       </c>
       <c r="C156" t="s">
-        <v>438</v>
+        <v>128</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -4344,10 +4480,10 @@
         <v>473</v>
       </c>
       <c r="B157" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="C157" t="s">
-        <v>298</v>
+        <v>438</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4355,10 +4491,10 @@
         <v>473</v>
       </c>
       <c r="B158" t="s">
-        <v>408</v>
+        <v>44</v>
       </c>
       <c r="C158" t="s">
-        <v>170</v>
+        <v>298</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4366,10 +4502,10 @@
         <v>473</v>
       </c>
       <c r="B159" t="s">
-        <v>88</v>
+        <v>408</v>
       </c>
       <c r="C159" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4377,10 +4513,10 @@
         <v>473</v>
       </c>
       <c r="B160" t="s">
-        <v>241</v>
+        <v>88</v>
       </c>
       <c r="C160" t="s">
-        <v>422</v>
+        <v>107</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4388,10 +4524,10 @@
         <v>473</v>
       </c>
       <c r="B161" t="s">
-        <v>55</v>
+        <v>241</v>
       </c>
       <c r="C161" t="s">
-        <v>392</v>
+        <v>422</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4399,10 +4535,10 @@
         <v>473</v>
       </c>
       <c r="B162" t="s">
-        <v>221</v>
+        <v>55</v>
       </c>
       <c r="C162" t="s">
-        <v>358</v>
+        <v>392</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4410,10 +4546,10 @@
         <v>473</v>
       </c>
       <c r="B163" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="C163" t="s">
-        <v>82</v>
+        <v>358</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -4424,7 +4560,7 @@
         <v>190</v>
       </c>
       <c r="C164" t="s">
-        <v>245</v>
+        <v>82</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4432,10 +4568,10 @@
         <v>473</v>
       </c>
       <c r="B165" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="C165" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4443,10 +4579,10 @@
         <v>473</v>
       </c>
       <c r="B166" t="s">
-        <v>300</v>
+        <v>146</v>
       </c>
       <c r="C166" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4454,10 +4590,10 @@
         <v>473</v>
       </c>
       <c r="B167" t="s">
-        <v>61</v>
+        <v>300</v>
       </c>
       <c r="C167" t="s">
-        <v>322</v>
+        <v>23</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4468,7 +4604,7 @@
         <v>61</v>
       </c>
       <c r="C168" t="s">
-        <v>112</v>
+        <v>322</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4476,10 +4612,10 @@
         <v>473</v>
       </c>
       <c r="B169" t="s">
-        <v>208</v>
+        <v>61</v>
       </c>
       <c r="C169" t="s">
-        <v>440</v>
+        <v>112</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4487,10 +4623,10 @@
         <v>473</v>
       </c>
       <c r="B170" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="C170" t="s">
-        <v>58</v>
+        <v>440</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4498,10 +4634,10 @@
         <v>473</v>
       </c>
       <c r="B171" t="s">
-        <v>10</v>
+        <v>244</v>
       </c>
       <c r="C171" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4509,10 +4645,10 @@
         <v>473</v>
       </c>
       <c r="B172" t="s">
-        <v>344</v>
+        <v>10</v>
       </c>
       <c r="C172" t="s">
-        <v>449</v>
+        <v>134</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4520,10 +4656,10 @@
         <v>473</v>
       </c>
       <c r="B173" t="s">
-        <v>126</v>
+        <v>344</v>
       </c>
       <c r="C173" t="s">
-        <v>352</v>
+        <v>449</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4531,10 +4667,10 @@
         <v>473</v>
       </c>
       <c r="B174" t="s">
-        <v>425</v>
+        <v>126</v>
       </c>
       <c r="C174" t="s">
-        <v>274</v>
+        <v>352</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4545,7 +4681,7 @@
         <v>425</v>
       </c>
       <c r="C175" t="s">
-        <v>181</v>
+        <v>274</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4553,252 +4689,252 @@
         <v>473</v>
       </c>
       <c r="B176" t="s">
+        <v>425</v>
+      </c>
+      <c r="C176" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B177" t="s">
+        <v>756</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B178" t="s">
+        <v>757</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B179" t="s">
+        <v>758</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B180" t="s">
+        <v>760</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B181" t="s">
+        <v>761</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B182" t="s">
+        <v>764</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B183" t="s">
+        <v>766</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B184" t="s">
+        <v>767</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B185" t="s">
+        <v>768</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B186" t="s">
+        <v>770</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B187" t="s">
+        <v>771</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B188" t="s">
+        <v>772</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B189" t="s">
+        <v>774</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B190" t="s">
+        <v>776</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B191" t="s">
+        <v>777</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B192" t="s">
+        <v>778</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B193" t="s">
+        <v>780</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B194" t="s">
+        <v>781</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B195" t="s">
+        <v>782</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B196" t="s">
+        <v>784</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B197" t="s">
+        <v>762</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B198" t="s">
         <v>117</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C198" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" t="s">
-        <v>473</v>
-      </c>
-      <c r="B177" t="s">
-        <v>67</v>
-      </c>
-      <c r="C177" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" t="s">
-        <v>473</v>
-      </c>
-      <c r="B178" t="s">
-        <v>356</v>
-      </c>
-      <c r="C178" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" t="s">
-        <v>473</v>
-      </c>
-      <c r="B179" t="s">
-        <v>64</v>
-      </c>
-      <c r="C179" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" t="s">
-        <v>473</v>
-      </c>
-      <c r="B180" t="s">
-        <v>151</v>
-      </c>
-      <c r="C180" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" t="s">
-        <v>473</v>
-      </c>
-      <c r="B181" t="s">
-        <v>137</v>
-      </c>
-      <c r="C181" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" t="s">
-        <v>473</v>
-      </c>
-      <c r="B182" t="s">
-        <v>387</v>
-      </c>
-      <c r="C182" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" t="s">
-        <v>473</v>
-      </c>
-      <c r="B183" t="s">
-        <v>197</v>
-      </c>
-      <c r="C183" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" t="s">
-        <v>473</v>
-      </c>
-      <c r="B184" t="s">
-        <v>330</v>
-      </c>
-      <c r="C184" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" t="s">
-        <v>473</v>
-      </c>
-      <c r="B185" t="s">
-        <v>184</v>
-      </c>
-      <c r="C185" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" t="s">
-        <v>473</v>
-      </c>
-      <c r="B186" t="s">
-        <v>321</v>
-      </c>
-      <c r="C186" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" t="s">
-        <v>473</v>
-      </c>
-      <c r="B187" t="s">
-        <v>444</v>
-      </c>
-      <c r="C187" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" t="s">
-        <v>473</v>
-      </c>
-      <c r="B188" t="s">
-        <v>399</v>
-      </c>
-      <c r="C188" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" t="s">
-        <v>473</v>
-      </c>
-      <c r="B189" t="s">
-        <v>254</v>
-      </c>
-      <c r="C189" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" t="s">
-        <v>473</v>
-      </c>
-      <c r="B190" t="s">
-        <v>409</v>
-      </c>
-      <c r="C190" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" t="s">
-        <v>473</v>
-      </c>
-      <c r="B191" t="s">
-        <v>306</v>
-      </c>
-      <c r="C191" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" t="s">
-        <v>473</v>
-      </c>
-      <c r="B192" t="s">
-        <v>303</v>
-      </c>
-      <c r="C192" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" t="s">
-        <v>473</v>
-      </c>
-      <c r="B193" t="s">
-        <v>224</v>
-      </c>
-      <c r="C193" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" t="s">
-        <v>473</v>
-      </c>
-      <c r="B194" t="s">
-        <v>390</v>
-      </c>
-      <c r="C194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" t="s">
-        <v>473</v>
-      </c>
-      <c r="B195" t="s">
-        <v>238</v>
-      </c>
-      <c r="C195" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" t="s">
-        <v>473</v>
-      </c>
-      <c r="B196" t="s">
-        <v>219</v>
-      </c>
-      <c r="C196" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" t="s">
-        <v>473</v>
-      </c>
-      <c r="B197" t="s">
-        <v>436</v>
-      </c>
-      <c r="C197" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" t="s">
-        <v>473</v>
-      </c>
-      <c r="B198" t="s">
-        <v>311</v>
-      </c>
-      <c r="C198" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4806,10 +4942,10 @@
         <v>473</v>
       </c>
       <c r="B199" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C199" t="s">
-        <v>89</v>
+        <v>288</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4817,10 +4953,10 @@
         <v>473</v>
       </c>
       <c r="B200" t="s">
-        <v>120</v>
+        <v>356</v>
       </c>
       <c r="C200" t="s">
-        <v>285</v>
+        <v>106</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4828,10 +4964,10 @@
         <v>473</v>
       </c>
       <c r="B201" t="s">
-        <v>550</v>
+        <v>64</v>
       </c>
       <c r="C201" t="s">
-        <v>493</v>
+        <v>452</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4839,10 +4975,10 @@
         <v>473</v>
       </c>
       <c r="B202" t="s">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="C202" t="s">
-        <v>80</v>
+        <v>415</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4850,10 +4986,10 @@
         <v>473</v>
       </c>
       <c r="B203" t="s">
-        <v>305</v>
+        <v>137</v>
       </c>
       <c r="C203" t="s">
-        <v>49</v>
+        <v>334</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4861,10 +4997,10 @@
         <v>473</v>
       </c>
       <c r="B204" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="C204" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4872,10 +5008,10 @@
         <v>473</v>
       </c>
       <c r="B205" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C205" t="s">
-        <v>445</v>
+        <v>273</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4883,10 +5019,10 @@
         <v>473</v>
       </c>
       <c r="B206" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
       <c r="C206" t="s">
-        <v>227</v>
+        <v>37</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4894,10 +5030,10 @@
         <v>473</v>
       </c>
       <c r="B207" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="C207" t="s">
-        <v>363</v>
+        <v>43</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4905,10 +5041,10 @@
         <v>473</v>
       </c>
       <c r="B208" t="s">
-        <v>149</v>
+        <v>321</v>
       </c>
       <c r="C208" t="s">
-        <v>314</v>
+        <v>53</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4916,10 +5052,10 @@
         <v>473</v>
       </c>
       <c r="B209" t="s">
-        <v>315</v>
+        <v>444</v>
       </c>
       <c r="C209" t="s">
-        <v>284</v>
+        <v>63</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4927,10 +5063,10 @@
         <v>473</v>
       </c>
       <c r="B210" t="s">
-        <v>51</v>
+        <v>399</v>
       </c>
       <c r="C210" t="s">
-        <v>324</v>
+        <v>95</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4938,10 +5074,10 @@
         <v>473</v>
       </c>
       <c r="B211" t="s">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="C211" t="s">
-        <v>388</v>
+        <v>328</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4949,10 +5085,10 @@
         <v>473</v>
       </c>
       <c r="B212" t="s">
-        <v>147</v>
+        <v>409</v>
       </c>
       <c r="C212" t="s">
-        <v>343</v>
+        <v>27</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4960,10 +5096,10 @@
         <v>473</v>
       </c>
       <c r="B213" t="s">
-        <v>424</v>
+        <v>306</v>
       </c>
       <c r="C213" t="s">
-        <v>396</v>
+        <v>36</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4971,10 +5107,10 @@
         <v>473</v>
       </c>
       <c r="B214" t="s">
-        <v>145</v>
+        <v>303</v>
       </c>
       <c r="C214" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4982,10 +5118,10 @@
         <v>473</v>
       </c>
       <c r="B215" t="s">
-        <v>18</v>
+        <v>224</v>
       </c>
       <c r="C215" t="s">
-        <v>139</v>
+        <v>437</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4993,10 +5129,10 @@
         <v>473</v>
       </c>
       <c r="B216" t="s">
-        <v>18</v>
+        <v>390</v>
       </c>
       <c r="C216" t="s">
-        <v>419</v>
+        <v>8</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -5004,10 +5140,10 @@
         <v>473</v>
       </c>
       <c r="B217" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C217" t="s">
-        <v>347</v>
+        <v>180</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5015,10 +5151,10 @@
         <v>473</v>
       </c>
       <c r="B218" t="s">
-        <v>448</v>
+        <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5026,10 +5162,10 @@
         <v>473</v>
       </c>
       <c r="B219" t="s">
-        <v>168</v>
+        <v>436</v>
       </c>
       <c r="C219" t="s">
-        <v>371</v>
+        <v>30</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -5037,10 +5173,10 @@
         <v>473</v>
       </c>
       <c r="B220" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="C220" t="s">
-        <v>429</v>
+        <v>122</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -5048,10 +5184,10 @@
         <v>473</v>
       </c>
       <c r="B221" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="C221" t="s">
-        <v>166</v>
+        <v>89</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5059,10 +5195,10 @@
         <v>473</v>
       </c>
       <c r="B222" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="C222" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -5070,10 +5206,10 @@
         <v>473</v>
       </c>
       <c r="B223" t="s">
-        <v>152</v>
+        <v>550</v>
       </c>
       <c r="C223" t="s">
-        <v>428</v>
+        <v>493</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -5081,10 +5217,10 @@
         <v>473</v>
       </c>
       <c r="B224" t="s">
-        <v>162</v>
+        <v>301</v>
       </c>
       <c r="C224" t="s">
-        <v>203</v>
+        <v>80</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -5092,10 +5228,10 @@
         <v>473</v>
       </c>
       <c r="B225" t="s">
-        <v>423</v>
+        <v>305</v>
       </c>
       <c r="C225" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5103,10 +5239,10 @@
         <v>473</v>
       </c>
       <c r="B226" t="s">
-        <v>165</v>
+        <v>357</v>
       </c>
       <c r="C226" t="s">
-        <v>411</v>
+        <v>105</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -5114,10 +5250,10 @@
         <v>473</v>
       </c>
       <c r="B227" t="s">
-        <v>430</v>
+        <v>192</v>
       </c>
       <c r="C227" t="s">
-        <v>191</v>
+        <v>445</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -5125,10 +5261,10 @@
         <v>473</v>
       </c>
       <c r="B228" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C228" t="s">
-        <v>14</v>
+        <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5136,10 +5272,10 @@
         <v>473</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="C229" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5147,10 +5283,10 @@
         <v>473</v>
       </c>
       <c r="B230" t="s">
-        <v>368</v>
+        <v>149</v>
       </c>
       <c r="C230" t="s">
-        <v>407</v>
+        <v>314</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -5158,10 +5294,10 @@
         <v>473</v>
       </c>
       <c r="B231" t="s">
-        <v>15</v>
+        <v>315</v>
       </c>
       <c r="C231" t="s">
-        <v>421</v>
+        <v>284</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -5169,10 +5305,10 @@
         <v>473</v>
       </c>
       <c r="B232" t="s">
-        <v>257</v>
+        <v>51</v>
       </c>
       <c r="C232" t="s">
-        <v>405</v>
+        <v>324</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5180,10 +5316,10 @@
         <v>473</v>
       </c>
       <c r="B233" t="s">
-        <v>257</v>
+        <v>110</v>
       </c>
       <c r="C233" t="s">
-        <v>60</v>
+        <v>388</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5191,10 +5327,10 @@
         <v>473</v>
       </c>
       <c r="B234" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="C234" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5202,10 +5338,10 @@
         <v>473</v>
       </c>
       <c r="B235" t="s">
-        <v>13</v>
+        <v>424</v>
       </c>
       <c r="C235" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5213,10 +5349,10 @@
         <v>473</v>
       </c>
       <c r="B236" t="s">
-        <v>341</v>
+        <v>145</v>
       </c>
       <c r="C236" t="s">
-        <v>38</v>
+        <v>346</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5224,10 +5360,10 @@
         <v>473</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C237" t="s">
-        <v>310</v>
+        <v>139</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5235,10 +5371,10 @@
         <v>473</v>
       </c>
       <c r="B238" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="C238" t="s">
-        <v>59</v>
+        <v>419</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5246,10 +5382,10 @@
         <v>473</v>
       </c>
       <c r="B239" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C239" t="s">
-        <v>214</v>
+        <v>347</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -5257,10 +5393,10 @@
         <v>473</v>
       </c>
       <c r="B240" t="s">
-        <v>339</v>
+        <v>448</v>
       </c>
       <c r="C240" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -5268,10 +5404,10 @@
         <v>473</v>
       </c>
       <c r="B241" t="s">
-        <v>281</v>
+        <v>168</v>
       </c>
       <c r="C241" t="s">
-        <v>319</v>
+        <v>371</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -5279,10 +5415,10 @@
         <v>473</v>
       </c>
       <c r="B242" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C242" t="s">
-        <v>266</v>
+        <v>429</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -5290,10 +5426,10 @@
         <v>473</v>
       </c>
       <c r="B243" t="s">
-        <v>193</v>
+        <v>73</v>
       </c>
       <c r="C243" t="s">
-        <v>276</v>
+        <v>166</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -5301,10 +5437,10 @@
         <v>473</v>
       </c>
       <c r="B244" t="s">
-        <v>193</v>
+        <v>48</v>
       </c>
       <c r="C244" t="s">
-        <v>81</v>
+        <v>338</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5312,10 +5448,10 @@
         <v>473</v>
       </c>
       <c r="B245" t="s">
-        <v>414</v>
+        <v>152</v>
       </c>
       <c r="C245" t="s">
-        <v>290</v>
+        <v>428</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5323,10 +5459,10 @@
         <v>473</v>
       </c>
       <c r="B246" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="C246" t="s">
-        <v>386</v>
+        <v>203</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5334,10 +5470,10 @@
         <v>473</v>
       </c>
       <c r="B247" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="C247" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5345,10 +5481,10 @@
         <v>473</v>
       </c>
       <c r="B248" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="C248" t="s">
-        <v>335</v>
+        <v>411</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5356,10 +5492,10 @@
         <v>473</v>
       </c>
       <c r="B249" t="s">
-        <v>163</v>
+        <v>430</v>
       </c>
       <c r="C249" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5367,10 +5503,10 @@
         <v>473</v>
       </c>
       <c r="B250" t="s">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c r="C250" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5378,10 +5514,10 @@
         <v>473</v>
       </c>
       <c r="B251" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5389,10 +5525,10 @@
         <v>473</v>
       </c>
       <c r="B252" t="s">
-        <v>9</v>
+        <v>368</v>
       </c>
       <c r="C252" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5400,10 +5536,10 @@
         <v>473</v>
       </c>
       <c r="B253" t="s">
-        <v>222</v>
+        <v>15</v>
       </c>
       <c r="C253" t="s">
-        <v>154</v>
+        <v>421</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5411,10 +5547,10 @@
         <v>473</v>
       </c>
       <c r="B254" t="s">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="C254" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5422,10 +5558,10 @@
         <v>473</v>
       </c>
       <c r="B255" t="s">
-        <v>118</v>
+        <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5433,10 +5569,10 @@
         <v>473</v>
       </c>
       <c r="B256" t="s">
-        <v>554</v>
+        <v>68</v>
       </c>
       <c r="C256" t="s">
-        <v>490</v>
+        <v>331</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -5444,10 +5580,10 @@
         <v>473</v>
       </c>
       <c r="B257" t="s">
-        <v>555</v>
+        <v>13</v>
       </c>
       <c r="C257" t="s">
-        <v>490</v>
+        <v>374</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5455,10 +5591,10 @@
         <v>473</v>
       </c>
       <c r="B258" t="s">
-        <v>556</v>
+        <v>341</v>
       </c>
       <c r="C258" t="s">
-        <v>490</v>
+        <v>38</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5466,10 +5602,10 @@
         <v>473</v>
       </c>
       <c r="B259" t="s">
-        <v>557</v>
+        <v>7</v>
       </c>
       <c r="C259" t="s">
-        <v>490</v>
+        <v>310</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5477,10 +5613,10 @@
         <v>473</v>
       </c>
       <c r="B260" t="s">
-        <v>558</v>
+        <v>115</v>
       </c>
       <c r="C260" t="s">
-        <v>490</v>
+        <v>59</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5488,10 +5624,10 @@
         <v>473</v>
       </c>
       <c r="B261" t="s">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="C261" t="s">
-        <v>490</v>
+        <v>214</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5499,10 +5635,10 @@
         <v>473</v>
       </c>
       <c r="B262" t="s">
-        <v>560</v>
+        <v>339</v>
       </c>
       <c r="C262" t="s">
-        <v>490</v>
+        <v>372</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5510,10 +5646,10 @@
         <v>473</v>
       </c>
       <c r="B263" t="s">
-        <v>561</v>
+        <v>281</v>
       </c>
       <c r="C263" t="s">
-        <v>490</v>
+        <v>319</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5521,10 +5657,10 @@
         <v>473</v>
       </c>
       <c r="B264" t="s">
-        <v>562</v>
+        <v>269</v>
       </c>
       <c r="C264" t="s">
-        <v>490</v>
+        <v>266</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5532,10 +5668,10 @@
         <v>473</v>
       </c>
       <c r="B265" t="s">
-        <v>563</v>
+        <v>193</v>
       </c>
       <c r="C265" t="s">
-        <v>490</v>
+        <v>276</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5543,10 +5679,10 @@
         <v>473</v>
       </c>
       <c r="B266" t="s">
-        <v>378</v>
+        <v>193</v>
       </c>
       <c r="C266" t="s">
-        <v>418</v>
+        <v>81</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5554,10 +5690,10 @@
         <v>473</v>
       </c>
       <c r="B267" t="s">
-        <v>564</v>
+        <v>414</v>
       </c>
       <c r="C267" t="s">
-        <v>490</v>
+        <v>290</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5565,10 +5701,10 @@
         <v>473</v>
       </c>
       <c r="B268" t="s">
-        <v>565</v>
+        <v>47</v>
       </c>
       <c r="C268" t="s">
-        <v>490</v>
+        <v>386</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5576,10 +5712,10 @@
         <v>473</v>
       </c>
       <c r="B269" t="s">
-        <v>566</v>
+        <v>398</v>
       </c>
       <c r="C269" t="s">
-        <v>490</v>
+        <v>52</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5587,10 +5723,10 @@
         <v>473</v>
       </c>
       <c r="B270" t="s">
-        <v>567</v>
+        <v>195</v>
       </c>
       <c r="C270" t="s">
-        <v>490</v>
+        <v>335</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5598,10 +5734,10 @@
         <v>473</v>
       </c>
       <c r="B271" t="s">
-        <v>568</v>
+        <v>163</v>
       </c>
       <c r="C271" t="s">
-        <v>490</v>
+        <v>235</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5609,10 +5745,10 @@
         <v>473</v>
       </c>
       <c r="B272" t="s">
-        <v>569</v>
+        <v>75</v>
       </c>
       <c r="C272" t="s">
-        <v>490</v>
+        <v>160</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5620,10 +5756,10 @@
         <v>473</v>
       </c>
       <c r="B273" t="s">
-        <v>570</v>
+        <v>9</v>
       </c>
       <c r="C273" t="s">
-        <v>490</v>
+        <v>28</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5631,10 +5767,10 @@
         <v>473</v>
       </c>
       <c r="B274" t="s">
-        <v>571</v>
+        <v>9</v>
       </c>
       <c r="C274" t="s">
-        <v>490</v>
+        <v>397</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5642,10 +5778,10 @@
         <v>473</v>
       </c>
       <c r="B275" t="s">
-        <v>572</v>
+        <v>222</v>
       </c>
       <c r="C275" t="s">
-        <v>490</v>
+        <v>154</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5653,10 +5789,10 @@
         <v>473</v>
       </c>
       <c r="B276" t="s">
-        <v>573</v>
+        <v>210</v>
       </c>
       <c r="C276" t="s">
-        <v>490</v>
+        <v>417</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5664,10 +5800,10 @@
         <v>473</v>
       </c>
       <c r="B277" t="s">
-        <v>574</v>
+        <v>118</v>
       </c>
       <c r="C277" t="s">
-        <v>490</v>
+        <v>71</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5675,7 +5811,7 @@
         <v>473</v>
       </c>
       <c r="B278" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="C278" t="s">
         <v>490</v>
@@ -5686,7 +5822,7 @@
         <v>473</v>
       </c>
       <c r="B279" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="C279" t="s">
         <v>490</v>
@@ -5697,7 +5833,7 @@
         <v>473</v>
       </c>
       <c r="B280" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="C280" t="s">
         <v>490</v>
@@ -5708,7 +5844,7 @@
         <v>473</v>
       </c>
       <c r="B281" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="C281" t="s">
         <v>490</v>
@@ -5719,7 +5855,7 @@
         <v>473</v>
       </c>
       <c r="B282" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="C282" t="s">
         <v>490</v>
@@ -5730,7 +5866,7 @@
         <v>473</v>
       </c>
       <c r="B283" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="C283" t="s">
         <v>490</v>
@@ -5741,7 +5877,7 @@
         <v>473</v>
       </c>
       <c r="B284" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="C284" t="s">
         <v>490</v>
@@ -5752,7 +5888,7 @@
         <v>473</v>
       </c>
       <c r="B285" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
       <c r="C285" t="s">
         <v>490</v>
@@ -5763,7 +5899,7 @@
         <v>473</v>
       </c>
       <c r="B286" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="C286" t="s">
         <v>490</v>
@@ -5774,7 +5910,7 @@
         <v>473</v>
       </c>
       <c r="B287" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="C287" t="s">
         <v>490</v>
@@ -5785,10 +5921,10 @@
         <v>473</v>
       </c>
       <c r="B288" t="s">
-        <v>585</v>
+        <v>378</v>
       </c>
       <c r="C288" t="s">
-        <v>490</v>
+        <v>418</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5796,7 +5932,7 @@
         <v>473</v>
       </c>
       <c r="B289" t="s">
-        <v>586</v>
+        <v>564</v>
       </c>
       <c r="C289" t="s">
         <v>490</v>
@@ -5807,7 +5943,7 @@
         <v>473</v>
       </c>
       <c r="B290" t="s">
-        <v>587</v>
+        <v>565</v>
       </c>
       <c r="C290" t="s">
         <v>490</v>
@@ -5818,7 +5954,7 @@
         <v>473</v>
       </c>
       <c r="B291" t="s">
-        <v>588</v>
+        <v>566</v>
       </c>
       <c r="C291" t="s">
         <v>490</v>
@@ -5829,7 +5965,7 @@
         <v>473</v>
       </c>
       <c r="B292" t="s">
-        <v>589</v>
+        <v>567</v>
       </c>
       <c r="C292" t="s">
         <v>490</v>
@@ -5840,7 +5976,7 @@
         <v>473</v>
       </c>
       <c r="B293" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="C293" t="s">
         <v>490</v>
@@ -5851,7 +5987,7 @@
         <v>473</v>
       </c>
       <c r="B294" t="s">
-        <v>591</v>
+        <v>569</v>
       </c>
       <c r="C294" t="s">
         <v>490</v>
@@ -5862,7 +5998,7 @@
         <v>473</v>
       </c>
       <c r="B295" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="C295" t="s">
         <v>490</v>
@@ -5873,7 +6009,7 @@
         <v>473</v>
       </c>
       <c r="B296" t="s">
-        <v>593</v>
+        <v>571</v>
       </c>
       <c r="C296" t="s">
         <v>490</v>
@@ -5884,7 +6020,7 @@
         <v>473</v>
       </c>
       <c r="B297" t="s">
-        <v>594</v>
+        <v>572</v>
       </c>
       <c r="C297" t="s">
         <v>490</v>
@@ -5895,7 +6031,7 @@
         <v>473</v>
       </c>
       <c r="B298" t="s">
-        <v>595</v>
+        <v>573</v>
       </c>
       <c r="C298" t="s">
         <v>490</v>
@@ -5906,7 +6042,7 @@
         <v>473</v>
       </c>
       <c r="B299" t="s">
-        <v>596</v>
+        <v>574</v>
       </c>
       <c r="C299" t="s">
         <v>490</v>
@@ -5917,7 +6053,7 @@
         <v>473</v>
       </c>
       <c r="B300" t="s">
-        <v>597</v>
+        <v>575</v>
       </c>
       <c r="C300" t="s">
         <v>490</v>
@@ -5928,7 +6064,7 @@
         <v>473</v>
       </c>
       <c r="B301" t="s">
-        <v>598</v>
+        <v>576</v>
       </c>
       <c r="C301" t="s">
         <v>490</v>
@@ -5939,7 +6075,7 @@
         <v>473</v>
       </c>
       <c r="B302" t="s">
-        <v>599</v>
+        <v>577</v>
       </c>
       <c r="C302" t="s">
         <v>490</v>
@@ -5950,7 +6086,7 @@
         <v>473</v>
       </c>
       <c r="B303" t="s">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="C303" t="s">
         <v>490</v>
@@ -5961,7 +6097,7 @@
         <v>473</v>
       </c>
       <c r="B304" t="s">
-        <v>601</v>
+        <v>579</v>
       </c>
       <c r="C304" t="s">
         <v>490</v>
@@ -5972,7 +6108,7 @@
         <v>473</v>
       </c>
       <c r="B305" t="s">
-        <v>602</v>
+        <v>580</v>
       </c>
       <c r="C305" t="s">
         <v>490</v>
@@ -5983,7 +6119,7 @@
         <v>473</v>
       </c>
       <c r="B306" t="s">
-        <v>603</v>
+        <v>581</v>
       </c>
       <c r="C306" t="s">
         <v>490</v>
@@ -5994,7 +6130,7 @@
         <v>473</v>
       </c>
       <c r="B307" t="s">
-        <v>604</v>
+        <v>582</v>
       </c>
       <c r="C307" t="s">
         <v>490</v>
@@ -6005,7 +6141,7 @@
         <v>473</v>
       </c>
       <c r="B308" t="s">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="C308" t="s">
         <v>490</v>
@@ -6016,7 +6152,7 @@
         <v>473</v>
       </c>
       <c r="B309" t="s">
-        <v>606</v>
+        <v>584</v>
       </c>
       <c r="C309" t="s">
         <v>490</v>
@@ -6027,7 +6163,7 @@
         <v>473</v>
       </c>
       <c r="B310" t="s">
-        <v>607</v>
+        <v>585</v>
       </c>
       <c r="C310" t="s">
         <v>490</v>
@@ -6038,7 +6174,7 @@
         <v>473</v>
       </c>
       <c r="B311" t="s">
-        <v>608</v>
+        <v>586</v>
       </c>
       <c r="C311" t="s">
         <v>490</v>
@@ -6049,7 +6185,7 @@
         <v>473</v>
       </c>
       <c r="B312" t="s">
-        <v>609</v>
+        <v>587</v>
       </c>
       <c r="C312" t="s">
         <v>490</v>
@@ -6060,7 +6196,7 @@
         <v>473</v>
       </c>
       <c r="B313" t="s">
-        <v>610</v>
+        <v>588</v>
       </c>
       <c r="C313" t="s">
         <v>490</v>
@@ -6071,7 +6207,7 @@
         <v>473</v>
       </c>
       <c r="B314" t="s">
-        <v>611</v>
+        <v>589</v>
       </c>
       <c r="C314" t="s">
         <v>490</v>
@@ -6082,7 +6218,7 @@
         <v>473</v>
       </c>
       <c r="B315" t="s">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="C315" t="s">
         <v>490</v>
@@ -6093,7 +6229,7 @@
         <v>473</v>
       </c>
       <c r="B316" t="s">
-        <v>613</v>
+        <v>591</v>
       </c>
       <c r="C316" t="s">
         <v>490</v>
@@ -6104,7 +6240,7 @@
         <v>473</v>
       </c>
       <c r="B317" t="s">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="C317" t="s">
         <v>490</v>
@@ -6115,7 +6251,7 @@
         <v>473</v>
       </c>
       <c r="B318" t="s">
-        <v>615</v>
+        <v>593</v>
       </c>
       <c r="C318" t="s">
         <v>490</v>
@@ -6126,7 +6262,7 @@
         <v>473</v>
       </c>
       <c r="B319" t="s">
-        <v>616</v>
+        <v>594</v>
       </c>
       <c r="C319" t="s">
         <v>490</v>
@@ -6137,7 +6273,7 @@
         <v>473</v>
       </c>
       <c r="B320" t="s">
-        <v>617</v>
+        <v>595</v>
       </c>
       <c r="C320" t="s">
         <v>490</v>
@@ -6148,7 +6284,7 @@
         <v>473</v>
       </c>
       <c r="B321" t="s">
-        <v>552</v>
+        <v>596</v>
       </c>
       <c r="C321" t="s">
         <v>490</v>
@@ -6159,10 +6295,10 @@
         <v>473</v>
       </c>
       <c r="B322" t="s">
-        <v>412</v>
+        <v>597</v>
       </c>
       <c r="C322" t="s">
-        <v>121</v>
+        <v>490</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6170,10 +6306,10 @@
         <v>473</v>
       </c>
       <c r="B323" t="s">
-        <v>360</v>
+        <v>598</v>
       </c>
       <c r="C323" t="s">
-        <v>186</v>
+        <v>490</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -6181,10 +6317,10 @@
         <v>473</v>
       </c>
       <c r="B324" t="s">
-        <v>138</v>
+        <v>599</v>
       </c>
       <c r="C324" t="s">
-        <v>24</v>
+        <v>490</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -6192,10 +6328,10 @@
         <v>473</v>
       </c>
       <c r="B325" t="s">
-        <v>551</v>
+        <v>600</v>
       </c>
       <c r="C325" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -6203,10 +6339,10 @@
         <v>473</v>
       </c>
       <c r="B326" t="s">
-        <v>258</v>
+        <v>601</v>
       </c>
       <c r="C326" t="s">
-        <v>291</v>
+        <v>490</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6214,7 +6350,7 @@
         <v>473</v>
       </c>
       <c r="B327" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="C327" t="s">
         <v>490</v>
@@ -6225,7 +6361,7 @@
         <v>473</v>
       </c>
       <c r="B328" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="C328" t="s">
         <v>490</v>
@@ -6236,7 +6372,7 @@
         <v>473</v>
       </c>
       <c r="B329" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="C329" t="s">
         <v>490</v>
@@ -6247,7 +6383,7 @@
         <v>473</v>
       </c>
       <c r="B330" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="C330" t="s">
         <v>490</v>
@@ -6258,7 +6394,7 @@
         <v>473</v>
       </c>
       <c r="B331" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="C331" t="s">
         <v>490</v>
@@ -6269,7 +6405,7 @@
         <v>473</v>
       </c>
       <c r="B332" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="C332" t="s">
         <v>490</v>
@@ -6280,7 +6416,7 @@
         <v>473</v>
       </c>
       <c r="B333" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="C333" t="s">
         <v>490</v>
@@ -6291,7 +6427,7 @@
         <v>473</v>
       </c>
       <c r="B334" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C334" t="s">
         <v>490</v>
@@ -6302,7 +6438,7 @@
         <v>473</v>
       </c>
       <c r="B335" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="C335" t="s">
         <v>490</v>
@@ -6313,7 +6449,7 @@
         <v>473</v>
       </c>
       <c r="B336" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="C336" t="s">
         <v>490</v>
@@ -6324,7 +6460,7 @@
         <v>473</v>
       </c>
       <c r="B337" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="C337" t="s">
         <v>490</v>
@@ -6335,7 +6471,7 @@
         <v>473</v>
       </c>
       <c r="B338" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="C338" t="s">
         <v>490</v>
@@ -6346,7 +6482,7 @@
         <v>473</v>
       </c>
       <c r="B339" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="C339" t="s">
         <v>490</v>
@@ -6357,7 +6493,7 @@
         <v>473</v>
       </c>
       <c r="B340" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="C340" t="s">
         <v>490</v>
@@ -6368,7 +6504,7 @@
         <v>473</v>
       </c>
       <c r="B341" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="C341" t="s">
         <v>490</v>
@@ -6379,7 +6515,7 @@
         <v>473</v>
       </c>
       <c r="B342" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="C342" t="s">
         <v>490</v>
@@ -6390,7 +6526,7 @@
         <v>473</v>
       </c>
       <c r="B343" t="s">
-        <v>634</v>
+        <v>552</v>
       </c>
       <c r="C343" t="s">
         <v>490</v>
@@ -6401,10 +6537,10 @@
         <v>473</v>
       </c>
       <c r="B344" t="s">
-        <v>635</v>
+        <v>412</v>
       </c>
       <c r="C344" t="s">
-        <v>490</v>
+        <v>121</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6412,10 +6548,10 @@
         <v>473</v>
       </c>
       <c r="B345" t="s">
-        <v>636</v>
+        <v>360</v>
       </c>
       <c r="C345" t="s">
-        <v>490</v>
+        <v>186</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6423,10 +6559,10 @@
         <v>473</v>
       </c>
       <c r="B346" t="s">
-        <v>637</v>
+        <v>138</v>
       </c>
       <c r="C346" t="s">
-        <v>490</v>
+        <v>24</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6434,10 +6570,10 @@
         <v>473</v>
       </c>
       <c r="B347" t="s">
-        <v>638</v>
+        <v>551</v>
       </c>
       <c r="C347" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6445,10 +6581,10 @@
         <v>473</v>
       </c>
       <c r="B348" t="s">
-        <v>639</v>
+        <v>258</v>
       </c>
       <c r="C348" t="s">
-        <v>490</v>
+        <v>291</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6456,7 +6592,7 @@
         <v>473</v>
       </c>
       <c r="B349" t="s">
-        <v>640</v>
+        <v>618</v>
       </c>
       <c r="C349" t="s">
         <v>490</v>
@@ -6467,7 +6603,7 @@
         <v>473</v>
       </c>
       <c r="B350" t="s">
-        <v>641</v>
+        <v>619</v>
       </c>
       <c r="C350" t="s">
         <v>490</v>
@@ -6478,7 +6614,7 @@
         <v>473</v>
       </c>
       <c r="B351" t="s">
-        <v>642</v>
+        <v>620</v>
       </c>
       <c r="C351" t="s">
         <v>490</v>
@@ -6489,7 +6625,7 @@
         <v>473</v>
       </c>
       <c r="B352" t="s">
-        <v>643</v>
+        <v>621</v>
       </c>
       <c r="C352" t="s">
         <v>490</v>
@@ -6500,7 +6636,7 @@
         <v>473</v>
       </c>
       <c r="B353" t="s">
-        <v>644</v>
+        <v>622</v>
       </c>
       <c r="C353" t="s">
         <v>490</v>
@@ -6511,7 +6647,7 @@
         <v>473</v>
       </c>
       <c r="B354" t="s">
-        <v>645</v>
+        <v>623</v>
       </c>
       <c r="C354" t="s">
         <v>490</v>
@@ -6522,7 +6658,7 @@
         <v>473</v>
       </c>
       <c r="B355" t="s">
-        <v>646</v>
+        <v>624</v>
       </c>
       <c r="C355" t="s">
         <v>490</v>
@@ -6533,7 +6669,7 @@
         <v>473</v>
       </c>
       <c r="B356" t="s">
-        <v>647</v>
+        <v>625</v>
       </c>
       <c r="C356" t="s">
         <v>490</v>
@@ -6544,7 +6680,7 @@
         <v>473</v>
       </c>
       <c r="B357" t="s">
-        <v>648</v>
+        <v>626</v>
       </c>
       <c r="C357" t="s">
         <v>490</v>
@@ -6555,7 +6691,7 @@
         <v>473</v>
       </c>
       <c r="B358" t="s">
-        <v>649</v>
+        <v>627</v>
       </c>
       <c r="C358" t="s">
         <v>490</v>
@@ -6566,7 +6702,7 @@
         <v>473</v>
       </c>
       <c r="B359" t="s">
-        <v>650</v>
+        <v>628</v>
       </c>
       <c r="C359" t="s">
         <v>490</v>
@@ -6577,7 +6713,7 @@
         <v>473</v>
       </c>
       <c r="B360" t="s">
-        <v>651</v>
+        <v>629</v>
       </c>
       <c r="C360" t="s">
         <v>490</v>
@@ -6588,7 +6724,7 @@
         <v>473</v>
       </c>
       <c r="B361" t="s">
-        <v>652</v>
+        <v>630</v>
       </c>
       <c r="C361" t="s">
         <v>490</v>
@@ -6599,7 +6735,7 @@
         <v>473</v>
       </c>
       <c r="B362" t="s">
-        <v>653</v>
+        <v>631</v>
       </c>
       <c r="C362" t="s">
         <v>490</v>
@@ -6610,7 +6746,7 @@
         <v>473</v>
       </c>
       <c r="B363" t="s">
-        <v>654</v>
+        <v>632</v>
       </c>
       <c r="C363" t="s">
         <v>490</v>
@@ -6621,7 +6757,7 @@
         <v>473</v>
       </c>
       <c r="B364" t="s">
-        <v>655</v>
+        <v>633</v>
       </c>
       <c r="C364" t="s">
         <v>490</v>
@@ -6632,7 +6768,7 @@
         <v>473</v>
       </c>
       <c r="B365" t="s">
-        <v>656</v>
+        <v>634</v>
       </c>
       <c r="C365" t="s">
         <v>490</v>
@@ -6643,7 +6779,7 @@
         <v>473</v>
       </c>
       <c r="B366" t="s">
-        <v>657</v>
+        <v>635</v>
       </c>
       <c r="C366" t="s">
         <v>490</v>
@@ -6654,7 +6790,7 @@
         <v>473</v>
       </c>
       <c r="B367" t="s">
-        <v>658</v>
+        <v>636</v>
       </c>
       <c r="C367" t="s">
         <v>490</v>
@@ -6665,7 +6801,7 @@
         <v>473</v>
       </c>
       <c r="B368" t="s">
-        <v>659</v>
+        <v>637</v>
       </c>
       <c r="C368" t="s">
         <v>490</v>
@@ -6676,7 +6812,7 @@
         <v>473</v>
       </c>
       <c r="B369" t="s">
-        <v>660</v>
+        <v>638</v>
       </c>
       <c r="C369" t="s">
         <v>490</v>
@@ -6687,7 +6823,7 @@
         <v>473</v>
       </c>
       <c r="B370" t="s">
-        <v>661</v>
+        <v>639</v>
       </c>
       <c r="C370" t="s">
         <v>490</v>
@@ -6698,7 +6834,7 @@
         <v>473</v>
       </c>
       <c r="B371" t="s">
-        <v>662</v>
+        <v>640</v>
       </c>
       <c r="C371" t="s">
         <v>490</v>
@@ -6709,7 +6845,7 @@
         <v>473</v>
       </c>
       <c r="B372" t="s">
-        <v>663</v>
+        <v>641</v>
       </c>
       <c r="C372" t="s">
         <v>490</v>
@@ -6720,7 +6856,7 @@
         <v>473</v>
       </c>
       <c r="B373" t="s">
-        <v>664</v>
+        <v>642</v>
       </c>
       <c r="C373" t="s">
         <v>490</v>
@@ -6731,7 +6867,7 @@
         <v>473</v>
       </c>
       <c r="B374" t="s">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="C374" t="s">
         <v>490</v>
@@ -6742,7 +6878,7 @@
         <v>473</v>
       </c>
       <c r="B375" t="s">
-        <v>666</v>
+        <v>644</v>
       </c>
       <c r="C375" t="s">
         <v>490</v>
@@ -6753,7 +6889,7 @@
         <v>473</v>
       </c>
       <c r="B376" t="s">
-        <v>667</v>
+        <v>645</v>
       </c>
       <c r="C376" t="s">
         <v>490</v>
@@ -6764,7 +6900,7 @@
         <v>473</v>
       </c>
       <c r="B377" t="s">
-        <v>668</v>
+        <v>646</v>
       </c>
       <c r="C377" t="s">
         <v>490</v>
@@ -6775,7 +6911,7 @@
         <v>473</v>
       </c>
       <c r="B378" t="s">
-        <v>669</v>
+        <v>647</v>
       </c>
       <c r="C378" t="s">
         <v>490</v>
@@ -6786,7 +6922,7 @@
         <v>473</v>
       </c>
       <c r="B379" t="s">
-        <v>670</v>
+        <v>648</v>
       </c>
       <c r="C379" t="s">
         <v>490</v>
@@ -6797,7 +6933,7 @@
         <v>473</v>
       </c>
       <c r="B380" t="s">
-        <v>671</v>
+        <v>649</v>
       </c>
       <c r="C380" t="s">
         <v>490</v>
@@ -6808,7 +6944,7 @@
         <v>473</v>
       </c>
       <c r="B381" t="s">
-        <v>672</v>
+        <v>650</v>
       </c>
       <c r="C381" t="s">
         <v>490</v>
@@ -6819,7 +6955,7 @@
         <v>473</v>
       </c>
       <c r="B382" t="s">
-        <v>673</v>
+        <v>651</v>
       </c>
       <c r="C382" t="s">
         <v>490</v>
@@ -6830,7 +6966,7 @@
         <v>473</v>
       </c>
       <c r="B383" t="s">
-        <v>674</v>
+        <v>652</v>
       </c>
       <c r="C383" t="s">
         <v>490</v>
@@ -6841,7 +6977,7 @@
         <v>473</v>
       </c>
       <c r="B384" t="s">
-        <v>675</v>
+        <v>653</v>
       </c>
       <c r="C384" t="s">
         <v>490</v>
@@ -6852,7 +6988,7 @@
         <v>473</v>
       </c>
       <c r="B385" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
       <c r="C385" t="s">
         <v>490</v>
@@ -6863,7 +6999,7 @@
         <v>473</v>
       </c>
       <c r="B386" t="s">
-        <v>677</v>
+        <v>655</v>
       </c>
       <c r="C386" t="s">
         <v>490</v>
@@ -6874,7 +7010,7 @@
         <v>473</v>
       </c>
       <c r="B387" t="s">
-        <v>678</v>
+        <v>656</v>
       </c>
       <c r="C387" t="s">
         <v>490</v>
@@ -6885,7 +7021,7 @@
         <v>473</v>
       </c>
       <c r="B388" t="s">
-        <v>679</v>
+        <v>657</v>
       </c>
       <c r="C388" t="s">
         <v>490</v>
@@ -6896,7 +7032,7 @@
         <v>473</v>
       </c>
       <c r="B389" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="C389" t="s">
         <v>490</v>
@@ -6907,7 +7043,7 @@
         <v>473</v>
       </c>
       <c r="B390" t="s">
-        <v>681</v>
+        <v>659</v>
       </c>
       <c r="C390" t="s">
         <v>490</v>
@@ -6918,7 +7054,7 @@
         <v>473</v>
       </c>
       <c r="B391" t="s">
-        <v>682</v>
+        <v>660</v>
       </c>
       <c r="C391" t="s">
         <v>490</v>
@@ -6929,7 +7065,7 @@
         <v>473</v>
       </c>
       <c r="B392" t="s">
-        <v>683</v>
+        <v>661</v>
       </c>
       <c r="C392" t="s">
         <v>490</v>
@@ -6940,7 +7076,7 @@
         <v>473</v>
       </c>
       <c r="B393" t="s">
-        <v>684</v>
+        <v>662</v>
       </c>
       <c r="C393" t="s">
         <v>490</v>
@@ -6951,7 +7087,7 @@
         <v>473</v>
       </c>
       <c r="B394" t="s">
-        <v>685</v>
+        <v>663</v>
       </c>
       <c r="C394" t="s">
         <v>490</v>
@@ -6962,7 +7098,7 @@
         <v>473</v>
       </c>
       <c r="B395" t="s">
-        <v>686</v>
+        <v>664</v>
       </c>
       <c r="C395" t="s">
         <v>490</v>
@@ -6973,7 +7109,7 @@
         <v>473</v>
       </c>
       <c r="B396" t="s">
-        <v>687</v>
+        <v>665</v>
       </c>
       <c r="C396" t="s">
         <v>490</v>
@@ -6984,7 +7120,7 @@
         <v>473</v>
       </c>
       <c r="B397" t="s">
-        <v>688</v>
+        <v>666</v>
       </c>
       <c r="C397" t="s">
         <v>490</v>
@@ -6995,7 +7131,7 @@
         <v>473</v>
       </c>
       <c r="B398" t="s">
-        <v>689</v>
+        <v>667</v>
       </c>
       <c r="C398" t="s">
         <v>490</v>
@@ -7006,7 +7142,7 @@
         <v>473</v>
       </c>
       <c r="B399" t="s">
-        <v>690</v>
+        <v>668</v>
       </c>
       <c r="C399" t="s">
         <v>490</v>
@@ -7017,7 +7153,7 @@
         <v>473</v>
       </c>
       <c r="B400" t="s">
-        <v>691</v>
+        <v>669</v>
       </c>
       <c r="C400" t="s">
         <v>490</v>
@@ -7028,7 +7164,7 @@
         <v>473</v>
       </c>
       <c r="B401" t="s">
-        <v>692</v>
+        <v>670</v>
       </c>
       <c r="C401" t="s">
         <v>490</v>
@@ -7039,7 +7175,7 @@
         <v>473</v>
       </c>
       <c r="B402" t="s">
-        <v>693</v>
+        <v>671</v>
       </c>
       <c r="C402" t="s">
         <v>490</v>
@@ -7050,7 +7186,7 @@
         <v>473</v>
       </c>
       <c r="B403" t="s">
-        <v>694</v>
+        <v>672</v>
       </c>
       <c r="C403" t="s">
         <v>490</v>
@@ -7061,7 +7197,7 @@
         <v>473</v>
       </c>
       <c r="B404" t="s">
-        <v>695</v>
+        <v>673</v>
       </c>
       <c r="C404" t="s">
         <v>490</v>
@@ -7072,7 +7208,7 @@
         <v>473</v>
       </c>
       <c r="B405" t="s">
-        <v>696</v>
+        <v>674</v>
       </c>
       <c r="C405" t="s">
         <v>490</v>
@@ -7083,7 +7219,7 @@
         <v>473</v>
       </c>
       <c r="B406" t="s">
-        <v>697</v>
+        <v>675</v>
       </c>
       <c r="C406" t="s">
         <v>490</v>
@@ -7094,7 +7230,7 @@
         <v>473</v>
       </c>
       <c r="B407" t="s">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="C407" t="s">
         <v>490</v>
@@ -7105,7 +7241,7 @@
         <v>473</v>
       </c>
       <c r="B408" t="s">
-        <v>699</v>
+        <v>677</v>
       </c>
       <c r="C408" t="s">
         <v>490</v>
@@ -7116,7 +7252,7 @@
         <v>473</v>
       </c>
       <c r="B409" t="s">
-        <v>700</v>
+        <v>678</v>
       </c>
       <c r="C409" t="s">
         <v>490</v>
@@ -7127,7 +7263,7 @@
         <v>473</v>
       </c>
       <c r="B410" t="s">
-        <v>701</v>
+        <v>679</v>
       </c>
       <c r="C410" t="s">
         <v>490</v>
@@ -7138,7 +7274,7 @@
         <v>473</v>
       </c>
       <c r="B411" t="s">
-        <v>702</v>
+        <v>680</v>
       </c>
       <c r="C411" t="s">
         <v>490</v>
@@ -7149,7 +7285,7 @@
         <v>473</v>
       </c>
       <c r="B412" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="C412" t="s">
         <v>490</v>
@@ -7160,7 +7296,7 @@
         <v>473</v>
       </c>
       <c r="B413" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="C413" t="s">
         <v>490</v>
@@ -7171,7 +7307,7 @@
         <v>473</v>
       </c>
       <c r="B414" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
       <c r="C414" t="s">
         <v>490</v>
@@ -7182,7 +7318,7 @@
         <v>473</v>
       </c>
       <c r="B415" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
       <c r="C415" t="s">
         <v>490</v>
@@ -7193,7 +7329,7 @@
         <v>473</v>
       </c>
       <c r="B416" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="C416" t="s">
         <v>490</v>
@@ -7204,7 +7340,7 @@
         <v>473</v>
       </c>
       <c r="B417" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="C417" t="s">
         <v>490</v>
@@ -7215,7 +7351,7 @@
         <v>473</v>
       </c>
       <c r="B418" t="s">
-        <v>709</v>
+        <v>687</v>
       </c>
       <c r="C418" t="s">
         <v>490</v>
@@ -7226,7 +7362,7 @@
         <v>473</v>
       </c>
       <c r="B419" t="s">
-        <v>710</v>
+        <v>688</v>
       </c>
       <c r="C419" t="s">
         <v>490</v>
@@ -7237,7 +7373,7 @@
         <v>473</v>
       </c>
       <c r="B420" t="s">
-        <v>711</v>
+        <v>689</v>
       </c>
       <c r="C420" t="s">
         <v>490</v>
@@ -7248,7 +7384,7 @@
         <v>473</v>
       </c>
       <c r="B421" t="s">
-        <v>712</v>
+        <v>690</v>
       </c>
       <c r="C421" t="s">
         <v>490</v>
@@ -7259,7 +7395,7 @@
         <v>473</v>
       </c>
       <c r="B422" t="s">
-        <v>713</v>
+        <v>691</v>
       </c>
       <c r="C422" t="s">
         <v>490</v>
@@ -7270,7 +7406,7 @@
         <v>473</v>
       </c>
       <c r="B423" t="s">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="C423" t="s">
         <v>490</v>
@@ -7281,7 +7417,7 @@
         <v>473</v>
       </c>
       <c r="B424" t="s">
-        <v>715</v>
+        <v>693</v>
       </c>
       <c r="C424" t="s">
         <v>490</v>
@@ -7292,7 +7428,7 @@
         <v>473</v>
       </c>
       <c r="B425" t="s">
-        <v>716</v>
+        <v>694</v>
       </c>
       <c r="C425" t="s">
         <v>490</v>
@@ -7303,7 +7439,7 @@
         <v>473</v>
       </c>
       <c r="B426" t="s">
-        <v>717</v>
+        <v>695</v>
       </c>
       <c r="C426" t="s">
         <v>490</v>
@@ -7314,7 +7450,7 @@
         <v>473</v>
       </c>
       <c r="B427" t="s">
-        <v>718</v>
+        <v>696</v>
       </c>
       <c r="C427" t="s">
         <v>490</v>
@@ -7325,7 +7461,7 @@
         <v>473</v>
       </c>
       <c r="B428" t="s">
-        <v>719</v>
+        <v>697</v>
       </c>
       <c r="C428" t="s">
         <v>490</v>
@@ -7336,7 +7472,7 @@
         <v>473</v>
       </c>
       <c r="B429" t="s">
-        <v>720</v>
+        <v>698</v>
       </c>
       <c r="C429" t="s">
         <v>490</v>
@@ -7347,7 +7483,7 @@
         <v>473</v>
       </c>
       <c r="B430" t="s">
-        <v>721</v>
+        <v>699</v>
       </c>
       <c r="C430" t="s">
         <v>490</v>
@@ -7358,7 +7494,7 @@
         <v>473</v>
       </c>
       <c r="B431" t="s">
-        <v>722</v>
+        <v>700</v>
       </c>
       <c r="C431" t="s">
         <v>490</v>
@@ -7369,7 +7505,7 @@
         <v>473</v>
       </c>
       <c r="B432" t="s">
-        <v>723</v>
+        <v>701</v>
       </c>
       <c r="C432" t="s">
         <v>490</v>
@@ -7380,7 +7516,7 @@
         <v>473</v>
       </c>
       <c r="B433" t="s">
-        <v>724</v>
+        <v>702</v>
       </c>
       <c r="C433" t="s">
         <v>490</v>
@@ -7391,7 +7527,7 @@
         <v>473</v>
       </c>
       <c r="B434" t="s">
-        <v>725</v>
+        <v>703</v>
       </c>
       <c r="C434" t="s">
         <v>490</v>
@@ -7402,7 +7538,7 @@
         <v>473</v>
       </c>
       <c r="B435" t="s">
-        <v>726</v>
+        <v>704</v>
       </c>
       <c r="C435" t="s">
         <v>490</v>
@@ -7413,7 +7549,7 @@
         <v>473</v>
       </c>
       <c r="B436" t="s">
-        <v>727</v>
+        <v>705</v>
       </c>
       <c r="C436" t="s">
         <v>490</v>
@@ -7424,7 +7560,7 @@
         <v>473</v>
       </c>
       <c r="B437" t="s">
-        <v>728</v>
+        <v>706</v>
       </c>
       <c r="C437" t="s">
         <v>490</v>
@@ -7435,7 +7571,7 @@
         <v>473</v>
       </c>
       <c r="B438" t="s">
-        <v>729</v>
+        <v>707</v>
       </c>
       <c r="C438" t="s">
         <v>490</v>
@@ -7446,7 +7582,7 @@
         <v>473</v>
       </c>
       <c r="B439" t="s">
-        <v>730</v>
+        <v>708</v>
       </c>
       <c r="C439" t="s">
         <v>490</v>
@@ -7457,7 +7593,7 @@
         <v>473</v>
       </c>
       <c r="B440" t="s">
-        <v>731</v>
+        <v>709</v>
       </c>
       <c r="C440" t="s">
         <v>490</v>
@@ -7468,7 +7604,7 @@
         <v>473</v>
       </c>
       <c r="B441" t="s">
-        <v>732</v>
+        <v>710</v>
       </c>
       <c r="C441" t="s">
         <v>490</v>
@@ -7479,7 +7615,7 @@
         <v>473</v>
       </c>
       <c r="B442" t="s">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="C442" t="s">
         <v>490</v>
@@ -7490,7 +7626,7 @@
         <v>473</v>
       </c>
       <c r="B443" t="s">
-        <v>734</v>
+        <v>712</v>
       </c>
       <c r="C443" t="s">
         <v>490</v>
@@ -7501,7 +7637,7 @@
         <v>473</v>
       </c>
       <c r="B444" t="s">
-        <v>735</v>
+        <v>713</v>
       </c>
       <c r="C444" t="s">
         <v>490</v>
@@ -7512,7 +7648,7 @@
         <v>473</v>
       </c>
       <c r="B445" t="s">
-        <v>736</v>
+        <v>714</v>
       </c>
       <c r="C445" t="s">
         <v>490</v>
@@ -7523,7 +7659,7 @@
         <v>473</v>
       </c>
       <c r="B446" t="s">
-        <v>737</v>
+        <v>715</v>
       </c>
       <c r="C446" t="s">
         <v>490</v>
@@ -7534,7 +7670,7 @@
         <v>473</v>
       </c>
       <c r="B447" t="s">
-        <v>738</v>
+        <v>716</v>
       </c>
       <c r="C447" t="s">
         <v>490</v>
@@ -7545,7 +7681,7 @@
         <v>473</v>
       </c>
       <c r="B448" t="s">
-        <v>739</v>
+        <v>717</v>
       </c>
       <c r="C448" t="s">
         <v>490</v>
@@ -7556,7 +7692,7 @@
         <v>473</v>
       </c>
       <c r="B449" t="s">
-        <v>740</v>
+        <v>718</v>
       </c>
       <c r="C449" t="s">
         <v>490</v>
@@ -7567,7 +7703,7 @@
         <v>473</v>
       </c>
       <c r="B450" t="s">
-        <v>741</v>
+        <v>719</v>
       </c>
       <c r="C450" t="s">
         <v>490</v>
@@ -7578,7 +7714,7 @@
         <v>473</v>
       </c>
       <c r="B451" t="s">
-        <v>742</v>
+        <v>720</v>
       </c>
       <c r="C451" t="s">
         <v>490</v>
@@ -7589,7 +7725,7 @@
         <v>473</v>
       </c>
       <c r="B452" t="s">
-        <v>743</v>
+        <v>721</v>
       </c>
       <c r="C452" t="s">
         <v>490</v>
@@ -7600,7 +7736,7 @@
         <v>473</v>
       </c>
       <c r="B453" t="s">
-        <v>744</v>
+        <v>722</v>
       </c>
       <c r="C453" t="s">
         <v>490</v>
@@ -7611,7 +7747,7 @@
         <v>473</v>
       </c>
       <c r="B454" t="s">
-        <v>745</v>
+        <v>723</v>
       </c>
       <c r="C454" t="s">
         <v>490</v>
@@ -7622,7 +7758,7 @@
         <v>473</v>
       </c>
       <c r="B455" t="s">
-        <v>746</v>
+        <v>724</v>
       </c>
       <c r="C455" t="s">
         <v>490</v>
@@ -7633,7 +7769,7 @@
         <v>473</v>
       </c>
       <c r="B456" t="s">
-        <v>747</v>
+        <v>725</v>
       </c>
       <c r="C456" t="s">
         <v>490</v>
@@ -7644,7 +7780,7 @@
         <v>473</v>
       </c>
       <c r="B457" t="s">
-        <v>748</v>
+        <v>726</v>
       </c>
       <c r="C457" t="s">
         <v>490</v>
@@ -7655,7 +7791,7 @@
         <v>473</v>
       </c>
       <c r="B458" t="s">
-        <v>749</v>
+        <v>727</v>
       </c>
       <c r="C458" t="s">
         <v>490</v>
@@ -7666,7 +7802,7 @@
         <v>473</v>
       </c>
       <c r="B459" t="s">
-        <v>750</v>
+        <v>728</v>
       </c>
       <c r="C459" t="s">
         <v>490</v>
@@ -7677,7 +7813,7 @@
         <v>473</v>
       </c>
       <c r="B460" t="s">
-        <v>751</v>
+        <v>729</v>
       </c>
       <c r="C460" t="s">
         <v>490</v>
@@ -7688,14 +7824,256 @@
         <v>473</v>
       </c>
       <c r="B461" t="s">
+        <v>730</v>
+      </c>
+      <c r="C461" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" t="s">
+        <v>473</v>
+      </c>
+      <c r="B462" t="s">
+        <v>731</v>
+      </c>
+      <c r="C462" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" t="s">
+        <v>473</v>
+      </c>
+      <c r="B463" t="s">
+        <v>732</v>
+      </c>
+      <c r="C463" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" t="s">
+        <v>473</v>
+      </c>
+      <c r="B464" t="s">
+        <v>733</v>
+      </c>
+      <c r="C464" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" t="s">
+        <v>473</v>
+      </c>
+      <c r="B465" t="s">
+        <v>734</v>
+      </c>
+      <c r="C465" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" t="s">
+        <v>473</v>
+      </c>
+      <c r="B466" t="s">
+        <v>735</v>
+      </c>
+      <c r="C466" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" t="s">
+        <v>473</v>
+      </c>
+      <c r="B467" t="s">
+        <v>736</v>
+      </c>
+      <c r="C467" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" t="s">
+        <v>473</v>
+      </c>
+      <c r="B468" t="s">
+        <v>737</v>
+      </c>
+      <c r="C468" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" t="s">
+        <v>473</v>
+      </c>
+      <c r="B469" t="s">
+        <v>738</v>
+      </c>
+      <c r="C469" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" t="s">
+        <v>473</v>
+      </c>
+      <c r="B470" t="s">
+        <v>739</v>
+      </c>
+      <c r="C470" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" t="s">
+        <v>473</v>
+      </c>
+      <c r="B471" t="s">
+        <v>740</v>
+      </c>
+      <c r="C471" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" t="s">
+        <v>473</v>
+      </c>
+      <c r="B472" t="s">
+        <v>741</v>
+      </c>
+      <c r="C472" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" t="s">
+        <v>473</v>
+      </c>
+      <c r="B473" t="s">
+        <v>742</v>
+      </c>
+      <c r="C473" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" t="s">
+        <v>473</v>
+      </c>
+      <c r="B474" t="s">
+        <v>743</v>
+      </c>
+      <c r="C474" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" t="s">
+        <v>473</v>
+      </c>
+      <c r="B475" t="s">
+        <v>744</v>
+      </c>
+      <c r="C475" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" t="s">
+        <v>473</v>
+      </c>
+      <c r="B476" t="s">
+        <v>745</v>
+      </c>
+      <c r="C476" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" t="s">
+        <v>473</v>
+      </c>
+      <c r="B477" t="s">
+        <v>746</v>
+      </c>
+      <c r="C477" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" t="s">
+        <v>473</v>
+      </c>
+      <c r="B478" t="s">
+        <v>747</v>
+      </c>
+      <c r="C478" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" t="s">
+        <v>473</v>
+      </c>
+      <c r="B479" t="s">
+        <v>748</v>
+      </c>
+      <c r="C479" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" t="s">
+        <v>473</v>
+      </c>
+      <c r="B480" t="s">
+        <v>749</v>
+      </c>
+      <c r="C480" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" t="s">
+        <v>473</v>
+      </c>
+      <c r="B481" t="s">
+        <v>750</v>
+      </c>
+      <c r="C481" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" t="s">
+        <v>473</v>
+      </c>
+      <c r="B482" t="s">
+        <v>751</v>
+      </c>
+      <c r="C482" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" t="s">
+        <v>473</v>
+      </c>
+      <c r="B483" t="s">
         <v>752</v>
       </c>
-      <c r="C461" t="s">
+      <c r="C483" t="s">
         <v>490</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1878">
+  <autoFilter ref="A1:D1900">
     <sortState ref="A2:C1878">
       <sortCondition ref="A1:A1878"/>
     </sortState>
